--- a/signal_processing/EEGLAB/MLModel/BAPResultsXL.xlsx
+++ b/signal_processing/EEGLAB/MLModel/BAPResultsXL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Bot\Documents\GitHub\BCIBAP\signal_processing\EEGLAB\MLModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F72208-BF3D-4E6F-80FF-74BE698BB2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5ECC4B-77AB-4141-B696-9121DC184459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{989A2B1D-9DD7-415E-9E51-C32D67174B1F}"/>
+    <workbookView xWindow="5130" yWindow="8475" windowWidth="21600" windowHeight="8445" activeTab="2" xr2:uid="{989A2B1D-9DD7-415E-9E51-C32D67174B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="NN" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="43">
   <si>
     <t>Fourier</t>
   </si>
@@ -159,14 +159,23 @@
   <si>
     <t>1000 trees</t>
   </si>
+  <si>
+    <t>PCA(99) Wavelet</t>
+  </si>
+  <si>
+    <t>PCA(95) Wavelet</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -219,18 +228,19 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Procent" xfId="2" builtinId="5"/>
@@ -320,7 +330,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -492,7 +502,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1487776159"/>
@@ -551,7 +561,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1487782399"/>
@@ -593,7 +603,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -630,7 +640,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3318,10 +3328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB2228B-26E8-46BA-BE18-CCEE8ADD6A3B}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,9 +3861,29 @@
         <v>84.800580246913569</v>
       </c>
     </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>38</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -3864,46 +3894,161 @@
       <c r="J16">
         <v>53.777000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>99.58</v>
+      </c>
+      <c r="R16" s="8">
+        <v>86.34</v>
+      </c>
+      <c r="S16">
+        <v>99.56</v>
+      </c>
+      <c r="T16">
+        <v>85.33</v>
+      </c>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>34</v>
       </c>
       <c r="J17">
         <v>99.415599999999998</v>
       </c>
-    </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I26">
-        <v>99.711590771156295</v>
-      </c>
-      <c r="J26">
-        <v>99.7291666666667</v>
-      </c>
-      <c r="K26">
-        <v>99.694988626922694</v>
-      </c>
-      <c r="L26">
-        <v>99.6</v>
-      </c>
-      <c r="M26">
-        <v>99.800457844390905</v>
-      </c>
-      <c r="N26">
-        <v>99.797132994371395</v>
-      </c>
-      <c r="O26">
-        <v>98.066666666666706</v>
-      </c>
-      <c r="P26">
-        <v>99.9130283422258</v>
-      </c>
-      <c r="Q26">
-        <v>99.898936910547704</v>
+      <c r="Q17">
+        <v>99.16</v>
+      </c>
+      <c r="R17">
+        <v>54.42</v>
+      </c>
+      <c r="S17">
+        <v>98.93</v>
+      </c>
+      <c r="T17">
+        <v>40.25</v>
+      </c>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>99.17</v>
+      </c>
+      <c r="R18">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="S18">
+        <v>99.36</v>
+      </c>
+      <c r="T18">
+        <v>37.46</v>
+      </c>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>98.81</v>
+      </c>
+      <c r="R19">
+        <v>67.56</v>
+      </c>
+      <c r="S19">
+        <v>98.95</v>
+      </c>
+      <c r="T19">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>99.8</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>99.8</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>99.63</v>
+      </c>
+      <c r="R21">
+        <v>68.33</v>
+      </c>
+      <c r="S21">
+        <v>99.63</v>
+      </c>
+      <c r="T21">
+        <v>68.47</v>
+      </c>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>97.13</v>
+      </c>
+      <c r="R22">
+        <v>45.25</v>
+      </c>
+      <c r="S22">
+        <v>96.76</v>
+      </c>
+      <c r="T22">
+        <v>37.65</v>
+      </c>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>99.73</v>
+      </c>
+      <c r="R23">
+        <v>71.13</v>
+      </c>
+      <c r="S23">
+        <v>99.73</v>
+      </c>
+      <c r="T23">
+        <v>69.37</v>
+      </c>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>99.57</v>
+      </c>
+      <c r="R24">
+        <v>54.89</v>
+      </c>
+      <c r="S24">
+        <v>99.54</v>
+      </c>
+      <c r="T24">
+        <v>51.38</v>
+      </c>
+    </row>
+    <row r="25" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25">
+        <f>AVERAGE(Q16:Q24)</f>
+        <v>99.175555555555576</v>
+      </c>
+      <c r="R25">
+        <f>AVERAGE(R16:R24)</f>
+        <v>51.97</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25:T25" si="2">AVERAGE(S16:S24)</f>
+        <v>99.14</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>51.237777777777779</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/signal_processing/EEGLAB/MLModel/BAPResultsXL.xlsx
+++ b/signal_processing/EEGLAB/MLModel/BAPResultsXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Bot\Documents\GitHub\BCIBAP\signal_processing\EEGLAB\MLModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5ECC4B-77AB-4141-B696-9121DC184459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6385DF3B-1A32-4A5E-9949-93D0FAF626EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="8475" windowWidth="21600" windowHeight="8445" activeTab="2" xr2:uid="{989A2B1D-9DD7-415E-9E51-C32D67174B1F}"/>
+    <workbookView xWindow="3195" yWindow="4245" windowWidth="21600" windowHeight="8445" activeTab="1" xr2:uid="{989A2B1D-9DD7-415E-9E51-C32D67174B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="NN" sheetId="1" r:id="rId1"/>
@@ -1534,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14639D8-EFD2-45A7-80DF-09BDEA263A77}">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
@@ -2636,11 +2636,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5BA2D6-94A1-4D53-B522-84BA7C7B8C14}">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2782,6 +2785,18 @@
       <c r="C3">
         <v>64.4166666666667</v>
       </c>
+      <c r="D3">
+        <v>99.49</v>
+      </c>
+      <c r="E3">
+        <v>82.416700000000006</v>
+      </c>
+      <c r="F3" s="8">
+        <v>99.53</v>
+      </c>
+      <c r="G3" s="8">
+        <v>82.4166666666667</v>
+      </c>
       <c r="I3">
         <v>99.736716320286305</v>
       </c>
@@ -2829,6 +2844,18 @@
       <c r="C4">
         <v>7.2222222222222197</v>
       </c>
+      <c r="D4">
+        <v>99.35</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="F4" s="8">
+        <v>99.25</v>
+      </c>
+      <c r="G4" s="8">
+        <v>59.1666666666667</v>
+      </c>
       <c r="I4">
         <v>99.5625</v>
       </c>
@@ -2876,6 +2903,18 @@
       <c r="C5">
         <v>1.5384615384615401</v>
       </c>
+      <c r="D5">
+        <v>99.14</v>
+      </c>
+      <c r="E5">
+        <v>19.230799999999999</v>
+      </c>
+      <c r="F5" s="8">
+        <v>99.170903275617604</v>
+      </c>
+      <c r="G5" s="8">
+        <v>20.769230769230798</v>
+      </c>
       <c r="I5">
         <v>99.210026906290494</v>
       </c>
@@ -2923,6 +2962,18 @@
       <c r="C6">
         <v>64.210526315789494</v>
       </c>
+      <c r="D6">
+        <v>99.16</v>
+      </c>
+      <c r="E6">
+        <v>76.315799999999996</v>
+      </c>
+      <c r="F6" s="8">
+        <v>99.2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>76.315789473684205</v>
+      </c>
       <c r="I6">
         <v>99.5</v>
       </c>
@@ -2970,6 +3021,18 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>99.8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>99.800457844390905</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
       <c r="I7">
         <v>99.800457844390905</v>
       </c>
@@ -3017,6 +3080,18 @@
       <c r="C8">
         <v>10.8333333333333</v>
       </c>
+      <c r="D8">
+        <v>99.55</v>
+      </c>
+      <c r="E8">
+        <v>61.136400000000002</v>
+      </c>
+      <c r="F8" s="8">
+        <v>99.575807301851796</v>
+      </c>
+      <c r="G8" s="8">
+        <v>62.045454545454497</v>
+      </c>
       <c r="I8">
         <v>99.704916081418901</v>
       </c>
@@ -3064,6 +3139,18 @@
       <c r="C9">
         <v>35.9677419354839</v>
       </c>
+      <c r="D9">
+        <v>97.76</v>
+      </c>
+      <c r="E9">
+        <v>61.471800000000002</v>
+      </c>
+      <c r="F9" s="8">
+        <v>97.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>52.772177419354797</v>
+      </c>
       <c r="I9">
         <v>98.116666666666703</v>
       </c>
@@ -3111,6 +3198,18 @@
       <c r="C10">
         <v>36.4444444444444</v>
       </c>
+      <c r="D10">
+        <v>99.75</v>
+      </c>
+      <c r="E10">
+        <v>74.332999999999998</v>
+      </c>
+      <c r="F10" s="8">
+        <v>99.765187119234099</v>
+      </c>
+      <c r="G10" s="8">
+        <v>75.2222222222222</v>
+      </c>
       <c r="I10">
         <v>99.817368600295197</v>
       </c>
@@ -3158,6 +3257,18 @@
       <c r="C11">
         <v>72.9166666666667</v>
       </c>
+      <c r="D11">
+        <v>99.66</v>
+      </c>
+      <c r="E11">
+        <v>65.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>99.619518257344396</v>
+      </c>
+      <c r="G11" s="8">
+        <v>61.625</v>
+      </c>
       <c r="I11">
         <v>99.774085543127995</v>
       </c>
@@ -3207,21 +3318,21 @@
         <f t="shared" si="0"/>
         <v>32.616673680340917</v>
       </c>
-      <c r="D12" t="e">
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" t="e">
+        <v>99.295555555555552</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" t="e">
+        <v>56.156055555555554</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" t="e">
+        <v>99.256874866493206</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>54.481467529253322</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -3298,6 +3409,12 @@
       <c r="AC12">
         <f t="shared" ref="AC12" si="15">AVERAGE(AC3:AC11)</f>
         <v>68.202088888888895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <f>AVERAGE(Y8:Y12,Y3:Y6)</f>
+        <v>79.089839506172837</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -3330,7 +3447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB2228B-26E8-46BA-BE18-CCEE8ADD6A3B}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
